--- a/New lead.xlsx
+++ b/New lead.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="138">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -64,210 +64,315 @@
     <x:t>Url</x:t>
   </x:si>
   <x:si>
+    <x:t>Url should be launched</x:t>
+  </x:si>
+  <x:si>
     <x:t>2</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Username</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Username</x:t>
+  </x:si>
+  <x:si>
     <x:t>3</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Password</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able toEnter the Password</x:t>
+  </x:si>
+  <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Click on Log In </x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Click on Log In</x:t>
+  </x:si>
+  <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Click on App Launcher</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to  Click on App Launcher</x:t>
+  </x:si>
+  <x:si>
     <x:t>6</x:t>
   </x:si>
   <x:si>
     <x:t>Click on View All</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Click on View All</x:t>
+  </x:si>
+  <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
     <x:t>Click on Sales</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Click on Sales</x:t>
+  </x:si>
+  <x:si>
     <x:t>8</x:t>
   </x:si>
   <x:si>
     <x:t>Click on Leads</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Click on Leads</x:t>
+  </x:si>
+  <x:si>
     <x:t>9</x:t>
   </x:si>
   <x:si>
     <x:t>Click on New button</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Click on New button</x:t>
+  </x:si>
+  <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
     <x:t>Select the Salutation</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Select the Salutation</x:t>
+  </x:si>
+  <x:si>
     <x:t>11</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the First Name</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the First Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>12</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Last Name</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Last Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>13</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Company</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Company</x:t>
+  </x:si>
+  <x:si>
     <x:t>14</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Title</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Title</x:t>
+  </x:si>
+  <x:si>
     <x:t>15</x:t>
   </x:si>
   <x:si>
     <x:t>Select the Lead Source</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Select the Lead Source</x:t>
+  </x:si>
+  <x:si>
     <x:t>16</x:t>
   </x:si>
   <x:si>
     <x:t>Select the Industry</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Select the Industry</x:t>
+  </x:si>
+  <x:si>
     <x:t>17</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Annual Revenue</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Annual Revenue</x:t>
+  </x:si>
+  <x:si>
     <x:t>18</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Street</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Street</x:t>
+  </x:si>
+  <x:si>
     <x:t>19</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the City</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the City</x:t>
+  </x:si>
+  <x:si>
     <x:t>20</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the State/Province</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the State/Province</x:t>
+  </x:si>
+  <x:si>
     <x:t>21</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Zip/Postal Code</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Zip/Postal Code</x:t>
+  </x:si>
+  <x:si>
     <x:t>22</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Country</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Country</x:t>
+  </x:si>
+  <x:si>
     <x:t>23</x:t>
   </x:si>
   <x:si>
     <x:t>Select the Product Interest</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Select the Product Interest</x:t>
+  </x:si>
+  <x:si>
     <x:t>24</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the SIC Code</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the SIC Code</x:t>
+  </x:si>
+  <x:si>
     <x:t>25</x:t>
   </x:si>
   <x:si>
     <x:t>Select the Primary</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Select the Primary</x:t>
+  </x:si>
+  <x:si>
     <x:t>26</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Number of Locations</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Number of Locations</x:t>
+  </x:si>
+  <x:si>
     <x:t>27</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Phone</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Phone</x:t>
+  </x:si>
+  <x:si>
     <x:t>28</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Mobile</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Mobile</x:t>
+  </x:si>
+  <x:si>
     <x:t>29</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Fax</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Fax</x:t>
+  </x:si>
+  <x:si>
     <x:t>30</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Email</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Email</x:t>
+  </x:si>
+  <x:si>
     <x:t>31</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Website</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Website</x:t>
+  </x:si>
+  <x:si>
     <x:t>32</x:t>
   </x:si>
   <x:si>
     <x:t>Select the Lead Status</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to select the Lead Status</x:t>
+  </x:si>
+  <x:si>
     <x:t>33</x:t>
   </x:si>
   <x:si>
     <x:t>Select the Rating</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Select the Rating</x:t>
+  </x:si>
+  <x:si>
     <x:t>34</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the No. of Employees</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the No. of Employees</x:t>
+  </x:si>
+  <x:si>
     <x:t>35</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Current Generator(s)</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Current Generator(s)</x:t>
+  </x:si>
+  <x:si>
     <x:t>36</x:t>
   </x:si>
   <x:si>
@@ -277,34 +382,52 @@
     <x:t>Click on Save</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Click on Save</x:t>
+  </x:si>
+  <x:si>
     <x:t>38</x:t>
   </x:si>
   <x:si>
     <x:t>Click on Select Converted Status</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Click on Select Converted Status</x:t>
+  </x:si>
+  <x:si>
     <x:t>39</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Account Name</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Account Name</x:t>
+  </x:si>
+  <x:si>
     <x:t>40</x:t>
   </x:si>
   <x:si>
     <x:t>Enter the Record Owner</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Enter the Record Owner</x:t>
+  </x:si>
+  <x:si>
     <x:t>41</x:t>
   </x:si>
   <x:si>
     <x:t>Select the Converted Status</x:t>
   </x:si>
   <x:si>
+    <x:t>User should be able to Select the Converted Status</x:t>
+  </x:si>
+  <x:si>
     <x:t>44</x:t>
   </x:si>
   <x:si>
     <x:t>Click on Convert</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to Click on Convert</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -708,7 +831,7 @@
     <x:col min="5" max="5" width="10.550625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="31.270625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="16.700625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="51.410625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -767,7 +890,9 @@
       <x:c r="G2" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="H2" s="0" t="s"/>
+      <x:c r="H2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
       <x:c r="K2" s="0" t="s"/>
@@ -779,12 +904,14 @@
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s"/>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
       <x:c r="K3" s="0" t="s"/>
@@ -796,12 +923,14 @@
       <x:c r="D4" s="0" t="s"/>
       <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="H4" s="0" t="s"/>
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
       <x:c r="K4" s="0" t="s"/>
@@ -813,12 +942,14 @@
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s"/>
       <x:c r="F5" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s"/>
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
       <x:c r="K5" s="0" t="s"/>
@@ -830,12 +961,14 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s"/>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
       <x:c r="K6" s="0" t="s"/>
@@ -847,12 +980,14 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s"/>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
       <x:c r="K7" s="0" t="s"/>
@@ -864,12 +999,14 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
       <x:c r="K8" s="0" t="s"/>
@@ -881,12 +1018,14 @@
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s"/>
       <x:c r="F9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
       <x:c r="K9" s="0" t="s"/>
@@ -898,12 +1037,14 @@
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
       <x:c r="K10" s="0" t="s"/>
@@ -915,12 +1056,14 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s"/>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
       <x:c r="K11" s="0" t="s"/>
@@ -932,12 +1075,14 @@
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s"/>
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
       <x:c r="K12" s="0" t="s"/>
@@ -949,12 +1094,14 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
       <x:c r="K13" s="0" t="s"/>
@@ -966,12 +1113,14 @@
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s"/>
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
       <x:c r="K14" s="0" t="s"/>
@@ -983,12 +1132,14 @@
       <x:c r="D15" s="0" t="s"/>
       <x:c r="E15" s="0" t="s"/>
       <x:c r="F15" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s"/>
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
       <x:c r="K15" s="0" t="s"/>
@@ -1000,12 +1151,14 @@
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s"/>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
       <x:c r="K16" s="0" t="s"/>
@@ -1017,12 +1170,14 @@
       <x:c r="D17" s="0" t="s"/>
       <x:c r="E17" s="0" t="s"/>
       <x:c r="F17" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
       <x:c r="K17" s="0" t="s"/>
@@ -1034,12 +1189,14 @@
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s"/>
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
       <x:c r="K18" s="0" t="s"/>
@@ -1051,12 +1208,14 @@
       <x:c r="D19" s="0" t="s"/>
       <x:c r="E19" s="0" t="s"/>
       <x:c r="F19" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
       <x:c r="K19" s="0" t="s"/>
@@ -1068,12 +1227,14 @@
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s"/>
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
       <x:c r="K20" s="0" t="s"/>
@@ -1085,12 +1246,14 @@
       <x:c r="D21" s="0" t="s"/>
       <x:c r="E21" s="0" t="s"/>
       <x:c r="F21" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s"/>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
       <x:c r="K21" s="0" t="s"/>
@@ -1102,12 +1265,14 @@
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s"/>
       <x:c r="F22" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="G22" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s"/>
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="H22" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
       <x:c r="K22" s="0" t="s"/>
@@ -1119,12 +1284,14 @@
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s"/>
       <x:c r="F23" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="G23" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s"/>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H23" s="0" t="s">
+        <x:v>79</x:v>
+      </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
       <x:c r="K23" s="0" t="s"/>
@@ -1136,12 +1303,14 @@
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s"/>
       <x:c r="F24" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G24" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s"/>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="H24" s="0" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
       <x:c r="K24" s="0" t="s"/>
@@ -1153,12 +1322,14 @@
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s"/>
       <x:c r="F25" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="G25" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s"/>
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="H25" s="0" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
       <x:c r="K25" s="0" t="s"/>
@@ -1170,12 +1341,14 @@
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="G26" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s"/>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H26" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
       <x:c r="K26" s="0" t="s"/>
@@ -1187,12 +1360,14 @@
       <x:c r="D27" s="0" t="s"/>
       <x:c r="E27" s="0" t="s"/>
       <x:c r="F27" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s"/>
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
+        <x:v>91</x:v>
+      </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
       <x:c r="K27" s="0" t="s"/>
@@ -1204,12 +1379,14 @@
       <x:c r="D28" s="0" t="s"/>
       <x:c r="E28" s="0" t="s"/>
       <x:c r="F28" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s"/>
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
+        <x:v>94</x:v>
+      </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
       <x:c r="K28" s="0" t="s"/>
@@ -1221,12 +1398,14 @@
       <x:c r="D29" s="0" t="s"/>
       <x:c r="E29" s="0" t="s"/>
       <x:c r="F29" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s"/>
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
+        <x:v>97</x:v>
+      </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
       <x:c r="K29" s="0" t="s"/>
@@ -1238,12 +1417,14 @@
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s"/>
       <x:c r="F30" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s"/>
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
       <x:c r="K30" s="0" t="s"/>
@@ -1255,12 +1436,14 @@
       <x:c r="D31" s="0" t="s"/>
       <x:c r="E31" s="0" t="s"/>
       <x:c r="F31" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>101</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s"/>
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
+        <x:v>103</x:v>
+      </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
       <x:c r="K31" s="0" t="s"/>
@@ -1272,12 +1455,14 @@
       <x:c r="D32" s="0" t="s"/>
       <x:c r="E32" s="0" t="s"/>
       <x:c r="F32" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s"/>
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
+        <x:v>106</x:v>
+      </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
       <x:c r="K32" s="0" t="s"/>
@@ -1289,12 +1474,14 @@
       <x:c r="D33" s="0" t="s"/>
       <x:c r="E33" s="0" t="s"/>
       <x:c r="F33" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>107</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s"/>
+        <x:v>108</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
+        <x:v>109</x:v>
+      </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
       <x:c r="K33" s="0" t="s"/>
@@ -1306,12 +1493,14 @@
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
-        <x:v>78</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s"/>
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
+        <x:v>112</x:v>
+      </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
       <x:c r="K34" s="0" t="s"/>
@@ -1323,12 +1512,14 @@
       <x:c r="D35" s="0" t="s"/>
       <x:c r="E35" s="0" t="s"/>
       <x:c r="F35" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s"/>
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
+        <x:v>115</x:v>
+      </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
       <x:c r="K35" s="0" t="s"/>
@@ -1340,12 +1531,14 @@
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s"/>
       <x:c r="F36" s="0" t="s">
-        <x:v>82</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="G36" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s"/>
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="H36" s="0" t="s">
+        <x:v>118</x:v>
+      </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
       <x:c r="K36" s="0" t="s"/>
@@ -1357,12 +1550,14 @@
       <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s"/>
       <x:c r="F37" s="0" t="s">
-        <x:v>84</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="G37" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s"/>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H37" s="0" t="s">
+        <x:v>88</x:v>
+      </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
       <x:c r="K37" s="0" t="s"/>
@@ -1374,12 +1569,14 @@
       <x:c r="D38" s="0" t="s"/>
       <x:c r="E38" s="0" t="s"/>
       <x:c r="F38" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="G38" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s"/>
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="H38" s="0" t="s">
+        <x:v>122</x:v>
+      </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
       <x:c r="K38" s="0" t="s"/>
@@ -1391,12 +1588,14 @@
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s"/>
       <x:c r="F39" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="G39" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s"/>
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="H39" s="0" t="s">
+        <x:v>125</x:v>
+      </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
       <x:c r="K39" s="0" t="s"/>
@@ -1408,12 +1607,14 @@
       <x:c r="D40" s="0" t="s"/>
       <x:c r="E40" s="0" t="s"/>
       <x:c r="F40" s="0" t="s">
-        <x:v>89</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s"/>
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
+        <x:v>128</x:v>
+      </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
       <x:c r="K40" s="0" t="s"/>
@@ -1425,12 +1626,14 @@
       <x:c r="D41" s="0" t="s"/>
       <x:c r="E41" s="0" t="s"/>
       <x:c r="F41" s="0" t="s">
-        <x:v>91</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s"/>
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
+        <x:v>131</x:v>
+      </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
       <x:c r="K41" s="0" t="s"/>
@@ -1442,12 +1645,14 @@
       <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s"/>
       <x:c r="F42" s="0" t="s">
-        <x:v>93</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s"/>
+        <x:v>133</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
+        <x:v>134</x:v>
+      </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
       <x:c r="K42" s="0" t="s"/>
@@ -1459,12 +1664,14 @@
       <x:c r="D43" s="0" t="s"/>
       <x:c r="E43" s="0" t="s"/>
       <x:c r="F43" s="0" t="s">
-        <x:v>95</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s"/>
+        <x:v>136</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
+        <x:v>137</x:v>
+      </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
       <x:c r="K43" s="0" t="s"/>
